--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>First name</t>
   </si>
@@ -64,12 +64,16 @@
   </si>
   <si>
     <t>SDET</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -389,8 +393,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -403,6 +407,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -414,6 +421,9 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="n">
+        <v>100000.0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -425,6 +435,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>120000.0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -436,6 +449,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="n">
+        <v>310000.0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -446,6 +462,9 @@
       </c>
       <c r="C5" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>250000.0</v>
       </c>
     </row>
   </sheetData>
